--- a/TerVer/birthday.xlsx
+++ b/TerVer/birthday.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>студентов</t>
   </si>
@@ -28,19 +28,197 @@
   </si>
   <si>
     <t>у кого-то из двух совпадет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      X </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">μ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">β+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ+12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(13)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ν+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ν+4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ν+5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ν+7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(10)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -59,12 +237,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,7 +660,7 @@
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -376,8 +679,20 @@
         <f xml:space="preserve"> FACT(365)/(FACT(365-A2)*365^A2) * 100</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -385,8 +700,14 @@
         <f t="shared" ref="B3:B5" si="0" xml:space="preserve"> FACT(365)/(FACT(365-A3)*365^A3)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -394,8 +715,53 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>65</v>
+      </c>
+      <c r="M4" s="2">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2">
+        <v>104</v>
+      </c>
+      <c r="O4" s="2">
+        <v>130</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -403,58 +769,179 @@
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="P5">
+        <f xml:space="preserve"> SUM(E5:O5)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f xml:space="preserve"> E5*E4</f>
+        <v>0.75</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:O6" si="1" xml:space="preserve"> F5*F4</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="P6">
+        <f xml:space="preserve"> SUM(E6:O6)</f>
+        <v>35.03</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -545,6 +1032,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TerVer/birthday.xlsx
+++ b/TerVer/birthday.xlsx
@@ -651,7 +651,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
